--- a/data/trans_bre/P41_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P41_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-22,57</t>
+          <t>-10,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,32</t>
+          <t>-9,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-16,41</t>
+          <t>-9,74</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,73</t>
+          <t>-10,95</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,08%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-32,58%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-16,96%</t>
+          <t>59,53%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-28,97%</t>
+          <t>-65,09%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>-65,79%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-63,02%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-76,07%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,84; 18,88</t>
+          <t>-3,52; 9,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-47,32; -0,06</t>
+          <t>-33,66; -0,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-29,11; 9,86</t>
+          <t>-21,09; -3,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-40,35; 3,03</t>
+          <t>-22,93; -3,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 22,17</t>
+          <t>-39,75; 2,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,42; 44,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-61,22; 0,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-50,01; 26,14</t>
+          <t>-57,0; 565,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-59,7; 7,46</t>
+          <t>-93,21; -5,62</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-18,26; 86,91</t>
+          <t>-86,07; -32,82</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-83,62; -34,33</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-97,19; 121,83</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,92</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-4,51</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>-27,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-2,63%</t>
+          <t>-27,71%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>-27,22%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-30,14%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>35,45%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 13,21</t>
+          <t>-8,15; 1,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 15,74</t>
+          <t>-8,84; 1,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 10,94</t>
+          <t>-8,73; -0,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 8,21</t>
+          <t>-8,68; -0,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 12,71</t>
+          <t>-2,02; 7,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 49,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 64,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,86; 41,92</t>
+          <t>-60,67; 27,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-26,46; 27,26</t>
+          <t>-56,29; 17,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 39,1</t>
+          <t>-51,21; 0,6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-49,07; -3,05</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-23,02; 134,92</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,21</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,43</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>6,03</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>42,88%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>54,09%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>29,89%</t>
+          <t>28,56%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>25,55%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>78,68%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 17,23</t>
+          <t>-1,13; 11,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 12,42</t>
+          <t>-6,63; 6,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 11,39</t>
+          <t>-1,92; 8,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 12,52</t>
+          <t>-0,79; 9,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 18,32</t>
+          <t>-1,85; 11,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 98,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,05; 71,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 58,06</t>
+          <t>-8,66; 181,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 61,69</t>
+          <t>-37,88; 61,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 89,77</t>
+          <t>-12,14; 80,52</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,67; 74,11</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-22,02; 235,75</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>-3,96</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>-17,23%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-2,75%</t>
+          <t>-26,71%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>-22,86%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-18,28%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 11,28</t>
+          <t>-5,55; 1,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 7,9</t>
+          <t>-9,99; 0,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 6,23</t>
+          <t>-9,71; 1,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 4,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 11,2</t>
+          <t>-8,98; 2,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 44,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,12; 29,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 22,17</t>
+          <t>-36,21; 12,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-19,86; 17,13</t>
+          <t>-51,23; 6,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 37,58</t>
+          <t>-49,3; 16,3</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-58,75; 39,83</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,98</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-3,63</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-2,79</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-3,06</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-8,51%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-25,94%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-19,91%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-20,25%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,47%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-3,38; 1,34</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-7,09; -0,66</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-5,77; -0,41</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-6,34; -0,21</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-5,72; 3,16</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-26,72; 12,99</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-42,97; -5,09</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-36,75; -3,3</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-35,83; -1,61</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-41,5; 46,84</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
